--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2734.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2734.xlsx
@@ -354,7 +354,7 @@
         <v>2.399088777435292</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.37132937605342</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2734.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2734.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160110509274684</v>
+        <v>0.8151398301124573</v>
       </c>
       <c r="B1">
-        <v>2.399088777435292</v>
+        <v>1.640724897384644</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.834611654281616</v>
       </c>
       <c r="D1">
-        <v>2.37132937605342</v>
+        <v>3.610299348831177</v>
       </c>
       <c r="E1">
-        <v>1.219737328905616</v>
+        <v>2.286367177963257</v>
       </c>
     </row>
   </sheetData>
